--- a/biology/Microbiologie/Haemophilus_influenzae/Haemophilus_influenzae.xlsx
+++ b/biology/Microbiologie/Haemophilus_influenzae/Haemophilus_influenzae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haemophilus influenzae, autrefois appelé bacille de Pfeiffer, est une bactérie strictement humaine de la famille des Pasteurellaceae et de la classe des Gammaproteobacteria. Les cellules sont des coccobacilles ou de petits bâtonnets immobiles à Gram négatif.
-Richard Pfeiffer (1858-1945) a été le premier à les décrire en 1892 lors de la pandémie de grippe (influenza) de 1889-1892[1]. On a longtemps cru qu'il s'agissait de l'agent infectieux responsable de la grippe, jusqu'à ce que Richard Shope mette en évidence en 1931 l'étiologie virale de cette maladie, en isolant un virus à partir de filtrats de broyats de poumons de porcs à l'occasion d'une grippe porcine proche de la grippe humaine[2].
+Richard Pfeiffer (1858-1945) a été le premier à les décrire en 1892 lors de la pandémie de grippe (influenza) de 1889-1892. On a longtemps cru qu'il s'agissait de l'agent infectieux responsable de la grippe, jusqu'à ce que Richard Shope mette en évidence en 1931 l'étiologie virale de cette maladie, en isolant un virus à partir de filtrats de broyats de poumons de porcs à l'occasion d'une grippe porcine proche de la grippe humaine.
 Son génome est le premier à être entièrement séquencé, en 1995 (1 830 140 paires de base et 1 740 gènes).
 </t>
         </is>
@@ -513,15 +525,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Haemophilus influenzae corrig. (Lehmann &amp; Neumann 1896) Winslow et al. 1917[3].
-Haemophilus influenzae a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Haemophilus influenzae corrig. (Lehmann &amp; Neumann 1896) Winslow et al. 1917.
+Haemophilus influenzae a pour synonymes :
 Bacterium influenzae Lehmann &amp; Neumann 1896
-Hemophilus influenzae (Lehmann &amp; Neumann 1896) Winslow et al. 1917
-Étymologie
-L'étymologie de l'épithète spécifique est la suivante: N.L. fem. n. influenza, 'grippe (de l'italien n. influenza); N.L. gen. fem. n. influenzae, de la grippe[3].
-</t>
+Hemophilus influenzae (Lehmann &amp; Neumann 1896) Winslow et al. 1917</t>
         </is>
       </c>
     </row>
@@ -546,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'épithète spécifique est la suivante: N.L. fem. n. influenza, 'grippe (de l'italien n. influenza); N.L. gen. fem. n. influenzae, de la grippe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Haemophilus_influenzae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haemophilus_influenzae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Pouvoir pathogène</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C'est une bactérie isolée à partir du microbiote des voies respiratoires supérieures humaines.
 Les souches non encapsulées (donc « non typables », « NTHI ») sont commensales de la sphère ORL et peuvent être responsables d'infections locales suppurées (otite, sinusite, pharyngite, conjonctivite). Haemophilus influenzae représente près de 40 % des causes bactériennes des otites moyennes aigües (infection suppurée de l’oreille moyenne).
@@ -562,31 +612,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Haemophilus_influenzae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Haemophilus_influenzae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Caractères bactériologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit bacille à Gram négatif, les souches virulentes de sérotype b sont fréquemment encapsulées mais la capsule est difficilement visible en dehors des prélèvements pathologiques purulents.
 Haemophilus influenzae exige deux facteurs de croissance : les facteurs X (hémine ou hématine) et V (NAD+).
@@ -597,37 +649,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Haemophilus_influenzae</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Haemophilus_influenzae</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Traitement</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haemophilus influenzae est sensible à l'amoxicilline dans 80 % des cas[4], cependant elle peut présenter une résistance aux β-lactamines en sécrétant une β-lactamase pouvant être traitée par de l'amoxicilline associée à un inhibiteur des pénicillinases tel que l'acide clavulanique. Il est également sensible aux céphalosporines de 3e génération et aux fluoroquinolones.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -649,12 +670,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haemophilus influenzae est sensible à l'amoxicilline dans 80 % des cas, cependant elle peut présenter une résistance aux β-lactamines en sécrétant une β-lactamase pouvant être traitée par de l'amoxicilline associée à un inhibiteur des pénicillinases tel que l'acide clavulanique. Il est également sensible aux céphalosporines de 3e génération et aux fluoroquinolones.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Haemophilus_influenzae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haemophilus_influenzae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des vaccins contre Haemophilus influenzae b sont disponibles depuis le début des années 1990. La couverture vaccinale des pays développés est de 92 %, alors qu'elle n'est que de 42 % dans les pays en voie de développement et 8 % dans les pays les plus pauvres[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des vaccins contre Haemophilus influenzae b sont disponibles depuis le début des années 1990. La couverture vaccinale des pays développés est de 92 %, alors qu'elle n'est que de 42 % dans les pays en voie de développement et 8 % dans les pays les plus pauvres.
 Les vaccins protégeant d’haemophilus influenzae sont les suivants :
 vaccins monovalents :
 Act-Hib,
@@ -667,36 +723,38 @@
 Infanrix hexa (+ Hépatite B).
 Le tableau vaccinal pour Haemophilus influenzae est le suivant :
 3 injections : à 2 mois, 4 mois et 11 mois.
-Trois injections sont recommandées en France[6]. Aux États-Unis, depuis la vaccination les progrès ont été spectaculaires pour les enfants et les adultes, mais chez les adultes âgés le nombre de cas parait en augmentation (comme dans l'Ohio par exemple) en étant lié à l'émergence d'autres souches de Haemophilus influenza (autres que b)[7].
+Trois injections sont recommandées en France. Aux États-Unis, depuis la vaccination les progrès ont été spectaculaires pour les enfants et les adultes, mais chez les adultes âgés le nombre de cas parait en augmentation (comme dans l'Ohio par exemple) en étant lié à l'émergence d'autres souches de Haemophilus influenza (autres que b).
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Haemophilus_influenzae</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Haemophilus_influenzae</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Utilisation en recherche</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les recherches sur Haemophilus influenzae ont permis d'isoler une série d'enzymes de restriction nommées Hind, dont la troisième découverte, HindIII, est l'une des enzymes de restriction les plus utilisées en biologie moléculaire. Son site de restriction à bouts cohésifs est palindromique :
 5'---A AGCTT---3'
